--- a/results/ALBERT/albert-base-v2_all/recipes_test_3.xlsx
+++ b/results/ALBERT/albert-base-v2_all/recipes_test_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\PycharmProjects\action-trigger-relation-extraction\results\ALBERT\albert-base-v2_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B1E38-16C4-47F2-A569-FDA592BCE616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42918BC-D24A-4C78-87C2-29A86D95AEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB85A9CD-378A-4565-9498-0491CB792A0C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="728">
   <si>
     <t>rel</t>
   </si>
@@ -2201,7 +2201,28 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>F1-score</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>TOT</t>
   </si>
 </sst>
 </file>
@@ -2567,10 +2588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EA95C2-2EA4-4663-A642-D930448E0BEA}">
-  <dimension ref="A1:D719"/>
+  <dimension ref="A1:D728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A695" workbookViewId="0">
-      <selection activeCell="D720" sqref="D720"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="D728" sqref="D728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5112,7 +5133,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B318" t="s">
@@ -5120,7 +5141,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B319" t="s">
@@ -6360,7 +6381,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B474" t="s">
@@ -6912,7 +6933,7 @@
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A543" s="1" t="s">
+      <c r="A543" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B543" t="s">
@@ -7936,7 +7957,7 @@
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A671" s="2" t="s">
+      <c r="A671" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B671" t="s">
@@ -8289,34 +8310,91 @@
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C716" t="s">
-        <v>717</v>
-      </c>
-      <c r="D716">
-        <v>0.87</v>
+        <v>2</v>
+      </c>
+      <c r="D716" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C717" t="s">
-        <v>718</v>
-      </c>
-      <c r="D717">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C718" t="s">
-        <v>719</v>
-      </c>
-      <c r="D718">
-        <v>0.9</v>
+        <v>9</v>
+      </c>
+      <c r="D717" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C719" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="D719">
-        <v>0.9</v>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C720" t="s">
+        <v>722</v>
+      </c>
+      <c r="D720">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="721" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C721" t="s">
+        <v>723</v>
+      </c>
+      <c r="D721">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="722" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C722" t="s">
+        <v>724</v>
+      </c>
+      <c r="D722">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="723" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C723" t="s">
+        <v>725</v>
+      </c>
+      <c r="D723">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="725" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C725" t="s">
+        <v>717</v>
+      </c>
+      <c r="D725">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="726" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C726" t="s">
+        <v>718</v>
+      </c>
+      <c r="D726">
+        <f>156/208</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="727" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C727" t="s">
+        <v>719</v>
+      </c>
+      <c r="D727">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="728" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C728" t="s">
+        <v>726</v>
+      </c>
+      <c r="D728">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>
